--- a/missions-counts-short.xlsx
+++ b/missions-counts-short.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tynan\Desktop\missions\gui version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tynan\Desktop\BK Missions\BK-Missions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C8F21CC7-6662-4CBB-8D3D-611780AE963E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4201E4-318E-43BD-B024-C608EBD83BDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="28050" windowHeight="16440"/>
+    <workbookView xWindow="2055" yWindow="1125" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="missions-counts-short" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="106">
   <si>
     <t>1. Main Objective</t>
   </si>
@@ -275,12 +275,75 @@
   </si>
   <si>
     <t>Merry Christmas!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 HCs [r 14-18] </t>
+  </si>
+  <si>
+    <t>86 tokens [r 70-90]</t>
+  </si>
+  <si>
+    <t>59 jiggies [r 45-60]</t>
+  </si>
+  <si>
+    <t>Activate all 8 warp cauldrons (not Dingpot)</t>
+  </si>
+  <si>
+    <t>9 jiggies in TTC [r 8-10]</t>
+  </si>
+  <si>
+    <t>8 jiggies in CC [r 8-10]</t>
+  </si>
+  <si>
+    <t>90 notes in CC [r 80-100]</t>
+  </si>
+  <si>
+    <t>99 notes in FP [r 80-100]</t>
+  </si>
+  <si>
+    <t>Merry Christmas! (Visit Boggy's igloo w/ him in it &amp; give presents)</t>
+  </si>
+  <si>
+    <t>69 notes in MMM [r 60-100]</t>
+  </si>
+  <si>
+    <t>13 tokens in MMM [r 10-16]</t>
+  </si>
+  <si>
+    <t>63 notes in GV [r 40-100]</t>
+  </si>
+  <si>
+    <t>8 jiggies in GV [r 4-9]</t>
+  </si>
+  <si>
+    <t>7 jiggies in RBB [r 4-10]</t>
+  </si>
+  <si>
+    <t>55 notes in RBB [r 40-100]</t>
+  </si>
+  <si>
+    <t>13 tokens in RBB [r 10-15]</t>
+  </si>
+  <si>
+    <t>99 notes in BGS [r 75-100]</t>
+  </si>
+  <si>
+    <t>5 jiggies in BGS [r 5-8]</t>
+  </si>
+  <si>
+    <t>66 notes in CCW [r 50-80]</t>
+  </si>
+  <si>
+    <t>8 jiggies in CCW [r 4-8]</t>
+  </si>
+  <si>
+    <t>23 tokens in CCW [r 15-25]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1146,11 +1209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,12 +1927,676 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
     </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>8578</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36">
+        <v>10038</v>
+      </c>
+      <c r="G36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <v>4809</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>8450</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>9904</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37">
+        <v>4763</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>8392</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <v>7034</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38">
+        <v>4760</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>8384</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39">
+        <v>6954</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>8383</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>5812</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40">
+        <v>4218</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>8353</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41">
+        <v>5215</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41">
+        <v>4175</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>8323</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>4033</v>
+      </c>
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42">
+        <v>4103</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43">
+        <v>8308</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43">
+        <v>3936</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43">
+        <v>3846</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>8294</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>3930</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44">
+        <v>3793</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>8264</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>3531</v>
+      </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45">
+        <v>3747</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46">
+        <v>8233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <v>3491</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46">
+        <v>3594</v>
+      </c>
+      <c r="I46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>8038</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47">
+        <v>3465</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47">
+        <v>3587</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>3131</v>
+      </c>
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>3460</v>
+      </c>
+      <c r="I48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49">
+        <v>3037</v>
+      </c>
+      <c r="F49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49">
+        <v>3225</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50">
+        <v>3024</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50">
+        <v>3165</v>
+      </c>
+      <c r="I50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51">
+        <v>2966</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51">
+        <v>3083</v>
+      </c>
+      <c r="I51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52">
+        <v>2849</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53">
+        <v>2747</v>
+      </c>
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54">
+        <v>2727</v>
+      </c>
+      <c r="F54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>2708</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55">
+        <v>2777</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>2598</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56">
+        <v>2758</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57">
+        <v>2519</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57">
+        <v>2747</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58">
+        <v>2327</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58">
+        <v>2741</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>2024</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59">
+        <v>2685</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60">
+        <v>2674</v>
+      </c>
+      <c r="I60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61">
+        <v>2605</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62">
+        <v>2168</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>104</v>
+      </c>
+      <c r="H63">
+        <v>2081</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64">
+        <v>2011</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65">
+        <v>2004</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66">
+        <v>1347</v>
+      </c>
+      <c r="I66" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:I32">
-    <sortCondition descending="1" ref="H2:H32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G36:I66">
+    <sortCondition descending="1" ref="H36:H66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
